--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2293360.87034855</v>
+        <v>-2294073.172171594</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>3.199249640013477</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="I9" t="n">
         <v>3.199249640013477</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>139.7931161911742</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.497933319247</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240824</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929904</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538036</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>10.82959949408632</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958192</v>
+        <v>72.00227733958189</v>
       </c>
       <c r="V11" t="n">
         <v>142.7315194560842</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>188.497933319247</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298091</v>
+        <v>100.3250645526133</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390262</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>188.4979333192471</v>
+        <v>13.44252716693646</v>
       </c>
       <c r="T12" t="n">
-        <v>179.7728788792656</v>
+        <v>188.497933319247</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382078</v>
+        <v>59.07980534382075</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233442</v>
+        <v>62.50065676233439</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394376</v>
+        <v>88.55631942394373</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640278</v>
+        <v>39.16465028640275</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095779</v>
+        <v>45.23602198095776</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.2816970025663</v>
+        <v>25.28169700256627</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311271</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725515</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138205</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517467</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110056</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>96.55640999252986</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240823</v>
+        <v>62.86150506240821</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929902</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.36873040538033</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958192</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>85.56429966435732</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298091</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161069</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>79.83126498396228</v>
+        <v>13.44252716693646</v>
       </c>
       <c r="T15" t="n">
-        <v>188.4979333192471</v>
+        <v>36.82265945242242</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382078</v>
+        <v>59.07980534382075</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233442</v>
+        <v>84.95215004881841</v>
       </c>
       <c r="W15" t="n">
-        <v>188.4979333192471</v>
+        <v>88.55631942394373</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640278</v>
+        <v>39.16465028640275</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095779</v>
+        <v>45.23602198095776</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.2816970025663</v>
+        <v>25.28169700256627</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311271</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725515</v>
       </c>
       <c r="U16" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138205</v>
       </c>
       <c r="W16" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517467</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110056</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F17" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G17" t="n">
         <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156611</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772169</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="18">
@@ -1926,25 +1926,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161069</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="V18" t="n">
-        <v>56.61930274518969</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>182.6993411470402</v>
       </c>
     </row>
     <row r="19">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -2202,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161069</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.87590202711199</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U21" t="n">
-        <v>46.33206439561933</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>105.751578713029</v>
       </c>
       <c r="G23" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
         <v>49.57372768156608</v>
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161069</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>54.74512304190392</v>
       </c>
       <c r="W24" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="X24" t="n">
-        <v>175.8298852728791</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444716</v>
+        <v>14.03224403444719</v>
       </c>
       <c r="T26" t="n">
         <v>8.981130875818252</v>
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>105.2520684432536</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161069</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.58566116773248</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489263</v>
+        <v>1.486173081489264</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288759</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V27" t="n">
         <v>27.16417039140123</v>
@@ -2700,7 +2700,7 @@
         <v>3.828163915469588</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.8995356100246</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444717</v>
+        <v>14.03224403444718</v>
       </c>
       <c r="T29" t="n">
-        <v>8.98113087581824</v>
+        <v>8.981130875818241</v>
       </c>
       <c r="U29" t="n">
         <v>36.66579096864874</v>
@@ -2877,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161069</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489263</v>
+        <v>1.486173081489264</v>
       </c>
       <c r="U30" t="n">
-        <v>71.45044437760649</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140123</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21983305301057</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>35.32177782917643</v>
       </c>
       <c r="Y30" t="n">
         <v>9.8995356100246</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.7747799869681</v>
+        <v>159.774779986968</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8930369903136</v>
+        <v>135.8930369903135</v>
       </c>
       <c r="D32" t="n">
-        <v>123.4596992513621</v>
+        <v>123.459699251362</v>
       </c>
       <c r="E32" t="n">
-        <v>157.1664516707709</v>
+        <v>157.1664516707708</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8867892491483</v>
+        <v>188.8867892491482</v>
       </c>
       <c r="G32" t="n">
-        <v>204.5257125717833</v>
+        <v>204.5257125717832</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176853</v>
+        <v>132.7089382176852</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461084</v>
+        <v>26.69730882461076</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758295</v>
+        <v>13.20453416758289</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954041</v>
+        <v>8.153421008953956</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178452</v>
+        <v>35.83808110178444</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5673232182868</v>
+        <v>106.5673232182867</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5840034349017</v>
+        <v>123.5840034349016</v>
       </c>
       <c r="X32" t="n">
-        <v>145.4702539038409</v>
+        <v>145.4702539038408</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.9731070275847</v>
+        <v>167.9731070275846</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>140.1707508837733</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161069</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250523</v>
+        <v>0.6584632146249676</v>
       </c>
       <c r="U33" t="n">
-        <v>222.6781784528258</v>
+        <v>22.9156091060233</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>26.33646052453693</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614636</v>
+        <v>52.39212318614628</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>3.000454048605292</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160389</v>
+        <v>9.071825743160304</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531534</v>
+        <v>21.12558397531526</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457782</v>
+        <v>9.449098059457699</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770038</v>
+        <v>74.3440965777003</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358468</v>
+        <v>30.79655479358459</v>
       </c>
       <c r="W34" t="n">
-        <v>75.9982466984701</v>
+        <v>75.99824669847001</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377301</v>
+        <v>7.606995017377216</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303191</v>
+        <v>2.828812423303106</v>
       </c>
     </row>
     <row r="35">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>54.14063559752649</v>
+        <v>112.5825763369219</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161069</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3585,19 +3585,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>19.84016498556229</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>107.3634103439874</v>
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161069</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>3.111023714142452</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3834,13 +3834,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,31 +3861,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161069</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>27.04149140089588</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153555</v>
+        <v>199.2922962474621</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173706</v>
+        <v>9.14077227717371</v>
       </c>
       <c r="V44" t="n">
         <v>79.87001439367597</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,25 +4098,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161069</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>11.00430190570982</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>209.1294824983218</v>
+        <v>25.69481436153555</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="C8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="D8" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="E8" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="F8" t="n">
-        <v>3.487505264143985</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="M8" t="n">
-        <v>3.42319711481442</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="N8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="O8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="P8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="R8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="S8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="T8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="U8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="V8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="W8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="X8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
     </row>
     <row r="9">
@@ -4860,19 +4860,19 @@
         <v>9.950635850029798</v>
       </c>
       <c r="C9" t="n">
+        <v>9.950635850029798</v>
+      </c>
+      <c r="D9" t="n">
         <v>6.719070557086891</v>
       </c>
-      <c r="D9" t="n">
-        <v>3.487505264143985</v>
-      </c>
       <c r="E9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="F9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="G9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="H9" t="n">
         <v>3.487505264143985</v>
@@ -4884,16 +4884,16 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>3.295227129213883</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="M9" t="n">
-        <v>3.295227129213883</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="N9" t="n">
-        <v>6.462484272827225</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="O9" t="n">
         <v>9.629741416440567</v>
@@ -4902,31 +4902,31 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="R9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="S9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="T9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="U9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="V9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="W9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="X9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>268.9782572732724</v>
+        <v>346.6869553831369</v>
       </c>
       <c r="C11" t="n">
-        <v>268.9782572732724</v>
+        <v>205.481787513264</v>
       </c>
       <c r="D11" t="n">
-        <v>268.9782572732724</v>
+        <v>205.481787513264</v>
       </c>
       <c r="E11" t="n">
-        <v>268.9782572732724</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="F11" t="n">
-        <v>268.9782572732724</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="G11" t="n">
-        <v>78.5763044255481</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="H11" t="n">
-        <v>78.5763044255481</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="I11" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="J11" t="n">
         <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>285.1396746888279</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="L11" t="n">
-        <v>471.7526286748825</v>
+        <v>162.1536558828888</v>
       </c>
       <c r="M11" t="n">
-        <v>552.6145277618298</v>
+        <v>348.7666098689434</v>
       </c>
       <c r="N11" t="n">
-        <v>627.9424208975221</v>
+        <v>535.379563854998</v>
       </c>
       <c r="O11" t="n">
-        <v>662.1630555901897</v>
+        <v>721.9925178410525</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324991</v>
+        <v>721.9925178410525</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769884</v>
+        <v>753.991733276988</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049692</v>
+        <v>753.991733276988</v>
       </c>
       <c r="S11" t="n">
-        <v>687.2220245550901</v>
+        <v>753.991733276988</v>
       </c>
       <c r="T11" t="n">
-        <v>676.2830351671241</v>
+        <v>753.991733276988</v>
       </c>
       <c r="U11" t="n">
-        <v>603.5534620968394</v>
+        <v>681.2621602067034</v>
       </c>
       <c r="V11" t="n">
-        <v>459.3802101209968</v>
+        <v>537.0889082308612</v>
       </c>
       <c r="W11" t="n">
-        <v>459.3802101209968</v>
+        <v>537.0889082308612</v>
       </c>
       <c r="X11" t="n">
-        <v>459.3802101209968</v>
+        <v>537.0889082308612</v>
       </c>
       <c r="Y11" t="n">
-        <v>459.3802101209968</v>
+        <v>346.6869553831369</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.54958997382333</v>
+        <v>116.4182837085835</v>
       </c>
       <c r="C12" t="n">
-        <v>68.08505727554243</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="D12" t="n">
-        <v>68.08505727554243</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="E12" t="n">
-        <v>68.08505727554243</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="F12" t="n">
-        <v>68.08505727554243</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="G12" t="n">
-        <v>68.08505727554243</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="H12" t="n">
-        <v>68.08505727554243</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="I12" t="n">
-        <v>68.08505727554243</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="J12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142012</v>
+        <v>53.04316068141989</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097939</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137993</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998538</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188882</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769884</v>
+        <v>753.991733276988</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.052888959654</v>
+        <v>753.991733276988</v>
       </c>
       <c r="R12" t="n">
-        <v>747.052888959654</v>
+        <v>617.9111264193339</v>
       </c>
       <c r="S12" t="n">
-        <v>556.6509361119296</v>
+        <v>604.3328161497011</v>
       </c>
       <c r="T12" t="n">
-        <v>375.0621695672168</v>
+        <v>413.9308633019768</v>
       </c>
       <c r="U12" t="n">
-        <v>315.3855985128524</v>
+        <v>354.2542922476125</v>
       </c>
       <c r="V12" t="n">
-        <v>252.2536219852419</v>
+        <v>291.122315720002</v>
       </c>
       <c r="W12" t="n">
-        <v>162.8027942842886</v>
+        <v>201.6714880190487</v>
       </c>
       <c r="X12" t="n">
-        <v>123.2425414697403</v>
+        <v>162.1112352045005</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.54958997382333</v>
+        <v>116.4182837085835</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="C13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="D13" t="n">
-        <v>47.71579242887331</v>
+        <v>47.71579242887334</v>
       </c>
       <c r="E13" t="n">
-        <v>83.82319414030772</v>
+        <v>83.82319414030778</v>
       </c>
       <c r="F13" t="n">
-        <v>122.6523622555827</v>
+        <v>122.6523622555828</v>
       </c>
       <c r="G13" t="n">
-        <v>122.6523622555827</v>
+        <v>122.6523622555828</v>
       </c>
       <c r="H13" t="n">
-        <v>122.6523622555827</v>
+        <v>122.6523622555828</v>
       </c>
       <c r="I13" t="n">
-        <v>122.6523622555827</v>
+        <v>122.6523622555828</v>
       </c>
       <c r="J13" t="n">
-        <v>122.6523622555827</v>
+        <v>122.6523622555828</v>
       </c>
       <c r="K13" t="n">
-        <v>207.2852437090525</v>
+        <v>122.6523622555828</v>
       </c>
       <c r="L13" t="n">
-        <v>351.8217271348925</v>
+        <v>122.6523622555828</v>
       </c>
       <c r="M13" t="n">
-        <v>351.8217271348925</v>
+        <v>274.0544470222154</v>
       </c>
       <c r="N13" t="n">
-        <v>351.8217271348925</v>
+        <v>434.066272738164</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8217271348925</v>
+        <v>434.066272738164</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351833</v>
+        <v>520.7166611426676</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.716661142668</v>
+        <v>520.7166611426676</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633078</v>
       </c>
       <c r="S13" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015778</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578857</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604132</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064921</v>
+        <v>211.975433506492</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117138</v>
+        <v>98.68003660117131</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099491</v>
+        <v>54.46671210099488</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>346.6869553831366</v>
+        <v>600.7934390355372</v>
       </c>
       <c r="C14" t="n">
-        <v>346.6869553831366</v>
+        <v>600.7934390355372</v>
       </c>
       <c r="D14" t="n">
-        <v>346.6869553831366</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="E14" t="n">
-        <v>346.6869553831366</v>
+        <v>249.1552281179549</v>
       </c>
       <c r="F14" t="n">
-        <v>346.6869553831366</v>
+        <v>249.1552281179549</v>
       </c>
       <c r="G14" t="n">
         <v>249.1552281179549</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554809</v>
+        <v>78.57630442554807</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
@@ -5279,49 +5279,49 @@
         <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1396746888279</v>
+        <v>267.8825731524727</v>
       </c>
       <c r="L14" t="n">
-        <v>331.8605171695879</v>
+        <v>314.6034156332327</v>
       </c>
       <c r="M14" t="n">
-        <v>412.7224162565351</v>
+        <v>395.4653147201798</v>
       </c>
       <c r="N14" t="n">
-        <v>488.0503093922274</v>
+        <v>470.7932078558721</v>
       </c>
       <c r="O14" t="n">
-        <v>522.2709440848951</v>
+        <v>505.0138425485397</v>
       </c>
       <c r="P14" t="n">
-        <v>683.6966729688543</v>
+        <v>666.439571432499</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769884</v>
+        <v>737.0894290049691</v>
       </c>
       <c r="S14" t="n">
-        <v>753.9917332769884</v>
+        <v>687.22202455509</v>
       </c>
       <c r="T14" t="n">
-        <v>753.9917332769884</v>
+        <v>687.22202455509</v>
       </c>
       <c r="U14" t="n">
-        <v>681.2621602067036</v>
+        <v>687.22202455509</v>
       </c>
       <c r="V14" t="n">
-        <v>537.088908230861</v>
+        <v>687.22202455509</v>
       </c>
       <c r="W14" t="n">
-        <v>537.088908230861</v>
+        <v>600.7934390355372</v>
       </c>
       <c r="X14" t="n">
-        <v>537.088908230861</v>
+        <v>600.7934390355372</v>
       </c>
       <c r="Y14" t="n">
-        <v>346.6869553831366</v>
+        <v>600.7934390355372</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.54958997382332</v>
+        <v>204.4921089325761</v>
       </c>
       <c r="C15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J15" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.0431606814201</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M15" t="n">
         <v>352.0527264137995</v>
@@ -5370,37 +5370,37 @@
         <v>538.6656803998542</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188884</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.052888959654</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R15" t="n">
-        <v>747.052888959654</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="S15" t="n">
-        <v>666.4152475617122</v>
+        <v>740.4134230073555</v>
       </c>
       <c r="T15" t="n">
-        <v>476.0132947139879</v>
+        <v>703.2188174998581</v>
       </c>
       <c r="U15" t="n">
-        <v>416.3367236596234</v>
+        <v>643.5422464454937</v>
       </c>
       <c r="V15" t="n">
-        <v>353.2047471320129</v>
+        <v>557.7319938709296</v>
       </c>
       <c r="W15" t="n">
-        <v>162.8027942842886</v>
+        <v>468.2811661699763</v>
       </c>
       <c r="X15" t="n">
-        <v>123.2425414697403</v>
+        <v>428.7209133554281</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.54958997382332</v>
+        <v>383.0279618595112</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07983466553977</v>
+        <v>15.60586471875853</v>
       </c>
       <c r="C16" t="n">
-        <v>15.07983466553977</v>
+        <v>27.18003706804308</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07983466553977</v>
+        <v>27.18003706804308</v>
       </c>
       <c r="E16" t="n">
-        <v>15.07983466553977</v>
+        <v>63.28743877947752</v>
       </c>
       <c r="F16" t="n">
-        <v>15.07983466553977</v>
+        <v>102.1166068947525</v>
       </c>
       <c r="G16" t="n">
-        <v>15.07983466553977</v>
+        <v>111.4696212284088</v>
       </c>
       <c r="H16" t="n">
-        <v>15.07983466553977</v>
+        <v>123.670249061826</v>
       </c>
       <c r="I16" t="n">
-        <v>15.07983466553977</v>
+        <v>136.8325921860778</v>
       </c>
       <c r="J16" t="n">
-        <v>15.07983466553977</v>
+        <v>194.1621621905351</v>
       </c>
       <c r="K16" t="n">
-        <v>68.02255735531438</v>
+        <v>194.1621621905351</v>
       </c>
       <c r="L16" t="n">
-        <v>212.5590407811544</v>
+        <v>194.1621621905351</v>
       </c>
       <c r="M16" t="n">
-        <v>212.5590407811544</v>
+        <v>194.1621621905351</v>
       </c>
       <c r="N16" t="n">
-        <v>212.5590407811544</v>
+        <v>354.1739879064837</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8217271348925</v>
+        <v>493.4366742602218</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351833</v>
+        <v>493.4366742602218</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.716661142668</v>
+        <v>520.7166611426677</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633078</v>
       </c>
       <c r="S16" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015778</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578857</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604132</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064921</v>
+        <v>211.975433506492</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117138</v>
+        <v>98.68003660117131</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099491</v>
+        <v>54.46671210099488</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961945</v>
+        <v>463.3923242961941</v>
       </c>
       <c r="C17" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040786</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210054</v>
+        <v>369.3697837210049</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718622</v>
+        <v>294.5907522718617</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940546</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116211</v>
+        <v>65.15430707116214</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993309</v>
+        <v>70.95335735993302</v>
       </c>
       <c r="J17" t="n">
-        <v>70.95335735993309</v>
+        <v>257.5663113459876</v>
       </c>
       <c r="K17" t="n">
-        <v>70.95335735993309</v>
+        <v>299.8243481314514</v>
       </c>
       <c r="L17" t="n">
-        <v>117.6741998406931</v>
+        <v>346.5451906122115</v>
       </c>
       <c r="M17" t="n">
-        <v>198.5360989276403</v>
+        <v>533.1581445982661</v>
       </c>
       <c r="N17" t="n">
-        <v>273.8639920633326</v>
+        <v>719.7710985843206</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0846267560003</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="P17" t="n">
-        <v>322.3749737650179</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q17" t="n">
-        <v>508.9879277510725</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R17" t="n">
-        <v>610.5283920402439</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="S17" t="n">
-        <v>679.7597616450948</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="T17" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879302</v>
+        <v>730.3229325879299</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235032</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530773</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>689.8616740655229</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="C18" t="n">
-        <v>689.8616740655229</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="D18" t="n">
-        <v>529.0815578265547</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="E18" t="n">
-        <v>355.5183539479692</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F18" t="n">
-        <v>195.0906376652133</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G18" t="n">
-        <v>195.0906376652133</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H18" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I18" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.0431606814201</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M18" t="n">
         <v>352.0527264137995</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998541</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188884</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.052888959654</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R18" t="n">
-        <v>747.052888959654</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="S18" t="n">
-        <v>747.052888959654</v>
+        <v>563.589780429264</v>
       </c>
       <c r="T18" t="n">
-        <v>747.052888959654</v>
+        <v>563.589780429264</v>
       </c>
       <c r="U18" t="n">
-        <v>747.052888959654</v>
+        <v>373.1878275815397</v>
       </c>
       <c r="V18" t="n">
-        <v>689.8616740655229</v>
+        <v>373.1878275815397</v>
       </c>
       <c r="W18" t="n">
-        <v>689.8616740655229</v>
+        <v>373.1878275815397</v>
       </c>
       <c r="X18" t="n">
-        <v>689.8616740655229</v>
+        <v>373.1878275815397</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.8616740655229</v>
+        <v>188.6430385441253</v>
       </c>
     </row>
     <row r="19">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961943</v>
+        <v>463.3923242961941</v>
       </c>
       <c r="C20" t="n">
         <v>410.1015905040787</v>
@@ -5735,10 +5735,10 @@
         <v>369.3697837210051</v>
       </c>
       <c r="E20" t="n">
-        <v>294.590752271862</v>
+        <v>294.5907522718621</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940549</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116208</v>
@@ -5747,52 +5747,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993309</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J20" t="n">
-        <v>70.95335735993309</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="K20" t="n">
-        <v>70.95335735993309</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6741998406931</v>
+        <v>257.5663113459877</v>
       </c>
       <c r="M20" t="n">
-        <v>198.5360989276403</v>
+        <v>338.4282104329349</v>
       </c>
       <c r="N20" t="n">
-        <v>273.8639920633326</v>
+        <v>413.7561035686272</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0846267560003</v>
+        <v>600.3690575546818</v>
       </c>
       <c r="P20" t="n">
-        <v>494.6975807420549</v>
+        <v>707.1675751369969</v>
       </c>
       <c r="Q20" t="n">
-        <v>679.7597616450948</v>
+        <v>707.1675751369969</v>
       </c>
       <c r="R20" t="n">
-        <v>679.7597616450948</v>
+        <v>707.1675751369969</v>
       </c>
       <c r="S20" t="n">
-        <v>679.7597616450948</v>
+        <v>707.1675751369969</v>
       </c>
       <c r="T20" t="n">
-        <v>753.9917332769884</v>
+        <v>707.1675751369969</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879302</v>
+        <v>730.3229325879299</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235035</v>
+        <v>689.4655660235032</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530775</v>
+        <v>626.5008757530774</v>
       </c>
       <c r="Y20" t="n">
         <v>540.8060308122033</v>
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>509.8508710658494</v>
+        <v>349.0707548268812</v>
       </c>
       <c r="C21" t="n">
-        <v>509.8508710658494</v>
+        <v>349.0707548268812</v>
       </c>
       <c r="D21" t="n">
         <v>349.0707548268812</v>
@@ -5832,10 +5832,10 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.0431606814201</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M21" t="n">
         <v>352.0527264137995</v>
@@ -5850,31 +5850,31 @@
         <v>753.9917332769884</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.052888959654</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R21" t="n">
-        <v>747.052888959654</v>
+        <v>729.8746605223298</v>
       </c>
       <c r="S21" t="n">
-        <v>747.052888959654</v>
+        <v>729.8746605223298</v>
       </c>
       <c r="T21" t="n">
-        <v>747.052888959654</v>
+        <v>539.4727076746055</v>
       </c>
       <c r="U21" t="n">
-        <v>700.2528239135738</v>
+        <v>539.4727076746055</v>
       </c>
       <c r="V21" t="n">
-        <v>700.2528239135738</v>
+        <v>539.4727076746055</v>
       </c>
       <c r="W21" t="n">
-        <v>509.8508710658494</v>
+        <v>349.0707548268812</v>
       </c>
       <c r="X21" t="n">
-        <v>509.8508710658494</v>
+        <v>349.0707548268812</v>
       </c>
       <c r="Y21" t="n">
-        <v>509.8508710658494</v>
+        <v>349.0707548268812</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961945</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040789</v>
+        <v>410.1015905040788</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210052</v>
       </c>
       <c r="E23" t="n">
-        <v>294.590752271862</v>
+        <v>294.5907522718617</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940548</v>
+        <v>187.7709757940546</v>
       </c>
       <c r="G23" t="n">
         <v>65.15430707116208</v>
@@ -5984,55 +5984,55 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993309</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95335735993309</v>
+        <v>81.03311375901467</v>
       </c>
       <c r="K23" t="n">
-        <v>70.95335735993309</v>
+        <v>81.03311375901467</v>
       </c>
       <c r="L23" t="n">
-        <v>117.6741998406931</v>
+        <v>127.7539562397747</v>
       </c>
       <c r="M23" t="n">
-        <v>198.5360989276403</v>
+        <v>314.3669102258293</v>
       </c>
       <c r="N23" t="n">
-        <v>273.8639920633326</v>
+        <v>389.6948033615216</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0846267560003</v>
+        <v>423.9154380541892</v>
       </c>
       <c r="P23" t="n">
-        <v>462.1637696110811</v>
+        <v>610.5283920402438</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.1637696110811</v>
+        <v>610.5283920402438</v>
       </c>
       <c r="R23" t="n">
-        <v>563.7042339002526</v>
+        <v>610.5283920402438</v>
       </c>
       <c r="S23" t="n">
-        <v>632.9356035051035</v>
+        <v>679.7597616450947</v>
       </c>
       <c r="T23" t="n">
-        <v>707.167575136997</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="V23" t="n">
-        <v>730.32293258793</v>
+        <v>730.3229325879299</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235036</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530776</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122034</v>
+        <v>540.8060308122033</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>188.6430385441253</v>
+        <v>365.2722251715443</v>
       </c>
       <c r="C24" t="n">
-        <v>188.6430385441253</v>
+        <v>175.859950904508</v>
       </c>
       <c r="D24" t="n">
-        <v>188.6430385441253</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E24" t="n">
         <v>15.07983466553977</v>
@@ -6069,10 +6069,10 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K24" t="n">
-        <v>53.0431606814201</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M24" t="n">
         <v>352.0527264137995</v>
@@ -6090,28 +6090,28 @@
         <v>747.052888959654</v>
       </c>
       <c r="R24" t="n">
-        <v>747.052888959654</v>
+        <v>610.9722821019998</v>
       </c>
       <c r="S24" t="n">
-        <v>747.052888959654</v>
+        <v>610.9722821019998</v>
       </c>
       <c r="T24" t="n">
-        <v>747.052888959654</v>
+        <v>610.9722821019998</v>
       </c>
       <c r="U24" t="n">
-        <v>747.052888959654</v>
+        <v>610.9722821019998</v>
       </c>
       <c r="V24" t="n">
-        <v>747.052888959654</v>
+        <v>555.6741780192685</v>
       </c>
       <c r="W24" t="n">
-        <v>556.6509361119296</v>
+        <v>365.2722251715443</v>
       </c>
       <c r="X24" t="n">
-        <v>379.0449913918496</v>
+        <v>365.2722251715443</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.6430385441253</v>
+        <v>365.2722251715443</v>
       </c>
     </row>
     <row r="25">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874101</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942522</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350248</v>
+        <v>597.6637583350256</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471334</v>
+        <v>406.0329511471343</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141561</v>
+        <v>198.605251714157</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845018</v>
+        <v>63.7197485984502</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514204</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J26" t="n">
         <v>171.2527996589549</v>
@@ -6230,10 +6230,10 @@
         <v>375.9427824528779</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523988</v>
+        <v>634.0135279523989</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581069</v>
+        <v>926.2253300581071</v>
       </c>
       <c r="N26" t="n">
         <v>1212.90312621256</v>
@@ -6245,31 +6245,31 @@
         <v>1654.882514315172</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666884</v>
+        <v>1777.417797666885</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757102</v>
+        <v>1795.834970757103</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883923</v>
+        <v>1781.660986883924</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.58913751441</v>
+        <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020825</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
         <v>1353.629035366662</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715703</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>559.3198938435198</v>
+        <v>162.9222798048129</v>
       </c>
       <c r="C27" t="n">
-        <v>369.9076195764835</v>
+        <v>162.9222798048129</v>
       </c>
       <c r="D27" t="n">
-        <v>369.9076195764835</v>
+        <v>162.9222798048129</v>
       </c>
       <c r="E27" t="n">
-        <v>196.3444156978979</v>
+        <v>162.9222798048129</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514204</v>
+        <v>162.9222798048129</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514204</v>
+        <v>162.9222798048129</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514204</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514204</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514204</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102237</v>
+        <v>73.88002543102239</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593964</v>
@@ -6324,31 +6324,31 @@
         <v>793.1206204512951</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.1817761339606</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="R27" t="n">
-        <v>786.1817761339606</v>
+        <v>714.7512657364138</v>
       </c>
       <c r="S27" t="n">
-        <v>786.1817761339606</v>
+        <v>714.7512657364138</v>
       </c>
       <c r="T27" t="n">
-        <v>784.6805912031634</v>
+        <v>713.2500808056166</v>
       </c>
       <c r="U27" t="n">
-        <v>760.6974407254992</v>
+        <v>473.6257681824968</v>
       </c>
       <c r="V27" t="n">
-        <v>733.2588847745889</v>
+        <v>446.1872122315864</v>
       </c>
       <c r="W27" t="n">
-        <v>679.5014776503358</v>
+        <v>392.4298051073333</v>
       </c>
       <c r="X27" t="n">
-        <v>675.6346454124878</v>
+        <v>388.5629728694852</v>
       </c>
       <c r="Y27" t="n">
-        <v>665.635114493271</v>
+        <v>162.9222798048129</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514204</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="C28" t="n">
-        <v>70.314920871469</v>
+        <v>82.47399327165044</v>
       </c>
       <c r="D28" t="n">
-        <v>137.9340001420264</v>
+        <v>82.47399327165044</v>
       </c>
       <c r="E28" t="n">
-        <v>209.0245233606847</v>
+        <v>82.47399327165044</v>
       </c>
       <c r="F28" t="n">
-        <v>209.0245233606847</v>
+        <v>82.47399327165044</v>
       </c>
       <c r="G28" t="n">
-        <v>209.0245233606847</v>
+        <v>82.47399327165044</v>
       </c>
       <c r="H28" t="n">
-        <v>256.2082727013258</v>
+        <v>82.47399327165044</v>
       </c>
       <c r="I28" t="n">
-        <v>256.2082727013258</v>
+        <v>82.47399327165044</v>
       </c>
       <c r="J28" t="n">
-        <v>256.2082727013258</v>
+        <v>174.7866847833316</v>
       </c>
       <c r="K28" t="n">
-        <v>256.2082727013258</v>
+        <v>174.7866847833316</v>
       </c>
       <c r="L28" t="n">
         <v>256.2082727013258</v>
@@ -6421,13 +6421,13 @@
         <v>125.7320365259938</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737327</v>
+        <v>48.13006019737329</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389699</v>
+        <v>39.61015627389701</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514204</v>
+        <v>35.91669941514206</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>1020.89842248961</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874106</v>
+        <v>882.7966579874105</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942527</v>
+        <v>757.2538204942526</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350254</v>
+        <v>597.6637583350252</v>
       </c>
       <c r="F29" t="n">
-        <v>406.032951147134</v>
+        <v>406.0329511471339</v>
       </c>
       <c r="G29" t="n">
         <v>198.6052517141567</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845003</v>
+        <v>63.71974859845</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589549</v>
+        <v>171.2527996589552</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528779</v>
+        <v>375.9427824528785</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523989</v>
+        <v>634.0135279523995</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581071</v>
+        <v>926.2253300581076</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R29" t="n">
         <v>1795.834970757103</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>186.1637746420379</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="C30" t="n">
-        <v>186.1637746420379</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="D30" t="n">
-        <v>186.1637746420379</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="E30" t="n">
-        <v>186.1637746420379</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F30" t="n">
-        <v>186.1637746420379</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.8800254310224</v>
+        <v>73.88002543102237</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593964</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8895911634019</v>
+        <v>372.8895911634017</v>
       </c>
       <c r="N30" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741609</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931952</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1817761339607</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="R30" t="n">
-        <v>786.1817761339607</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="S30" t="n">
-        <v>786.1817761339607</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="T30" t="n">
-        <v>784.6805912031635</v>
+        <v>791.6194355204979</v>
       </c>
       <c r="U30" t="n">
-        <v>712.5084251651772</v>
+        <v>551.995122897378</v>
       </c>
       <c r="V30" t="n">
-        <v>685.0698692142669</v>
+        <v>308.9154048010121</v>
       </c>
       <c r="W30" t="n">
-        <v>415.6712999445583</v>
+        <v>255.157997676759</v>
       </c>
       <c r="X30" t="n">
-        <v>196.1633055612546</v>
+        <v>219.4794342129444</v>
       </c>
       <c r="Y30" t="n">
-        <v>186.1637746420379</v>
+        <v>209.4799032937276</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514206</v>
+        <v>82.47399327165044</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514206</v>
+        <v>82.47399327165044</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514206</v>
+        <v>82.47399327165044</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91669941514206</v>
+        <v>156.2862828941493</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91669941514206</v>
+        <v>156.2862828941493</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91669941514206</v>
+        <v>203.4700322347904</v>
       </c>
       <c r="I31" t="n">
-        <v>84.06216404661768</v>
+        <v>203.4700322347904</v>
       </c>
       <c r="J31" t="n">
-        <v>176.3748555582988</v>
+        <v>203.4700322347904</v>
       </c>
       <c r="K31" t="n">
-        <v>176.3748555582988</v>
+        <v>203.4700322347904</v>
       </c>
       <c r="L31" t="n">
-        <v>266.162514176009</v>
+        <v>203.4700322347904</v>
       </c>
       <c r="M31" t="n">
-        <v>266.162514176009</v>
+        <v>203.4700322347904</v>
       </c>
       <c r="N31" t="n">
         <v>266.162514176009</v>
@@ -6658,13 +6658,13 @@
         <v>125.7320365259938</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737329</v>
+        <v>48.1300601973733</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389701</v>
+        <v>39.61015627389702</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>1014.789988510279</v>
       </c>
       <c r="C32" t="n">
-        <v>877.524294580669</v>
+        <v>877.5242945806693</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601014</v>
+        <v>752.8175276601015</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734641</v>
+        <v>594.0635360734643</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581627</v>
+        <v>403.2687994581631</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977756</v>
+        <v>196.6771705977754</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465901</v>
+        <v>62.62773805465893</v>
       </c>
       <c r="I32" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559494</v>
+        <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180679</v>
+        <v>377.325708018068</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857846</v>
+        <v>636.2158862857847</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596883</v>
+        <v>909.3311676570754</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.744350082337</v>
+        <v>1196.828396579724</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.134320561961</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
-        <v>1660.36260372134</v>
+        <v>1640.446650218727</v>
       </c>
       <c r="Q32" t="n">
         <v>1763.801366338636</v>
@@ -6725,10 +6725,10 @@
         <v>1783.037972197049</v>
       </c>
       <c r="S32" t="n">
-        <v>1769.70005889646</v>
+        <v>1769.700058896461</v>
       </c>
       <c r="T32" t="n">
-        <v>1761.464280099537</v>
+        <v>1761.464280099538</v>
       </c>
       <c r="U32" t="n">
         <v>1725.264198178543</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.66075944394098</v>
+        <v>535.747825220629</v>
       </c>
       <c r="C33" t="n">
-        <v>35.66075944394098</v>
+        <v>346.3355509535927</v>
       </c>
       <c r="D33" t="n">
-        <v>35.66075944394098</v>
+        <v>346.3355509535927</v>
       </c>
       <c r="E33" t="n">
-        <v>35.66075944394098</v>
+        <v>346.3355509535927</v>
       </c>
       <c r="F33" t="n">
-        <v>35.66075944394098</v>
+        <v>185.9078346708368</v>
       </c>
       <c r="G33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="H33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982132</v>
+        <v>73.6240854598213</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9570045881954</v>
+        <v>190.9570045881953</v>
       </c>
       <c r="M33" t="n">
-        <v>372.6336511922008</v>
+        <v>372.6336511922007</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029599</v>
+        <v>577.5386276029598</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219942</v>
+        <v>709.2395672219941</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800941</v>
+        <v>792.864680480094</v>
       </c>
       <c r="Q33" t="n">
-        <v>785.9258361627597</v>
+        <v>792.864680480094</v>
       </c>
       <c r="R33" t="n">
-        <v>785.9258361627597</v>
+        <v>792.864680480094</v>
       </c>
       <c r="S33" t="n">
-        <v>785.9258361627597</v>
+        <v>792.864680480094</v>
       </c>
       <c r="T33" t="n">
-        <v>785.2607218045525</v>
+        <v>792.199566121887</v>
       </c>
       <c r="U33" t="n">
-        <v>560.3332688219002</v>
+        <v>769.0524862168129</v>
       </c>
       <c r="V33" t="n">
-        <v>317.2535507255343</v>
+        <v>742.4500008384928</v>
       </c>
       <c r="W33" t="n">
-        <v>264.3322141738713</v>
+        <v>689.5286642868299</v>
       </c>
       <c r="X33" t="n">
-        <v>44.82421979056764</v>
+        <v>686.4979026215721</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.66075944394098</v>
+        <v>677.3344422749454</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.98934377257915</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="C34" t="n">
-        <v>119.3660703972831</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="D34" t="n">
-        <v>187.8045824360361</v>
+        <v>104.099271482694</v>
       </c>
       <c r="E34" t="n">
-        <v>259.7145384228899</v>
+        <v>104.099271482694</v>
       </c>
       <c r="F34" t="n">
-        <v>259.7145384228899</v>
+        <v>104.099271482694</v>
       </c>
       <c r="G34" t="n">
-        <v>259.7145384228899</v>
+        <v>114.244424747518</v>
       </c>
       <c r="H34" t="n">
-        <v>259.7145384228899</v>
+        <v>114.244424747518</v>
       </c>
       <c r="I34" t="n">
-        <v>259.7145384228899</v>
+        <v>114.244424747518</v>
       </c>
       <c r="J34" t="n">
-        <v>259.7145384228899</v>
+        <v>114.244424747518</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7145384228899</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="L34" t="n">
-        <v>259.7145384228899</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="M34" t="n">
-        <v>259.7145384228899</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="N34" t="n">
-        <v>259.7145384228899</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="O34" t="n">
-        <v>259.7145384228899</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="P34" t="n">
-        <v>259.7145384228899</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.7145384228899</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842374</v>
+        <v>238.7151064842369</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898356</v>
+        <v>229.1705629898352</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416534</v>
+        <v>154.075515941653</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370224</v>
+        <v>122.9678848370221</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099198</v>
+        <v>46.20197908099182</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010582</v>
+        <v>38.51814573010574</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361092</v>
+        <v>623.0190675361099</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513515</v>
+        <v>544.0833815513522</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756359</v>
+        <v>477.7066225756366</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338506</v>
+        <v>377.2826389338513</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786679</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="J35" t="n">
-        <v>200.190534637371</v>
+        <v>214.1616385483602</v>
       </c>
       <c r="K35" t="n">
-        <v>200.190534637371</v>
+        <v>472.0178398246887</v>
       </c>
       <c r="L35" t="n">
-        <v>246.911377118131</v>
+        <v>729.8740411010173</v>
       </c>
       <c r="M35" t="n">
-        <v>327.7732762050782</v>
+        <v>810.7359401879644</v>
       </c>
       <c r="N35" t="n">
-        <v>403.1011693407705</v>
+        <v>886.0638333236566</v>
       </c>
       <c r="O35" t="n">
-        <v>437.3218040334382</v>
+        <v>921.3406388741101</v>
       </c>
       <c r="P35" t="n">
-        <v>691.7193279795663</v>
+        <v>921.3406388741101</v>
       </c>
       <c r="Q35" t="n">
-        <v>872.2432848862245</v>
+        <v>921.3406388741101</v>
       </c>
       <c r="R35" t="n">
-        <v>948.6491315313873</v>
+        <v>997.7464855192729</v>
       </c>
       <c r="S35" t="n">
-        <v>992.7458834922296</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="T35" t="n">
         <v>1041.843237480115</v>
@@ -6971,16 +6971,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984138</v>
+        <v>992.5294845984145</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413449</v>
+        <v>926.0271658413455</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782768</v>
+        <v>837.4175233782775</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447604</v>
+        <v>726.077726244761</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>236.977487300528</v>
+        <v>295.3367550662695</v>
       </c>
       <c r="C36" t="n">
-        <v>236.977487300528</v>
+        <v>295.3367550662695</v>
       </c>
       <c r="D36" t="n">
-        <v>236.977487300528</v>
+        <v>134.5566388273012</v>
       </c>
       <c r="E36" t="n">
-        <v>236.977487300528</v>
+        <v>134.5566388273012</v>
       </c>
       <c r="F36" t="n">
-        <v>236.977487300528</v>
+        <v>134.5566388273012</v>
       </c>
       <c r="G36" t="n">
-        <v>236.977487300528</v>
+        <v>134.5566388273012</v>
       </c>
       <c r="H36" t="n">
-        <v>182.2899765959558</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I36" t="n">
-        <v>73.84208735960493</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548263</v>
+        <v>58.80019076548262</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1331098938567</v>
+        <v>176.1331098938566</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978621</v>
+        <v>357.8097564978619</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086212</v>
+        <v>562.714732908621</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276555</v>
+        <v>694.4156725276554</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857554</v>
+        <v>778.0407857857552</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.1019414684209</v>
+        <v>778.0407857857552</v>
       </c>
       <c r="R36" t="n">
-        <v>635.0213346107668</v>
+        <v>778.0407857857552</v>
       </c>
       <c r="S36" t="n">
-        <v>635.0213346107668</v>
+        <v>778.0407857857552</v>
       </c>
       <c r="T36" t="n">
-        <v>635.0213346107668</v>
+        <v>778.0407857857552</v>
       </c>
       <c r="U36" t="n">
-        <v>635.0213346107668</v>
+        <v>538.4164731626354</v>
       </c>
       <c r="V36" t="n">
-        <v>635.0213346107668</v>
+        <v>295.3367550662695</v>
       </c>
       <c r="W36" t="n">
-        <v>635.0213346107668</v>
+        <v>295.3367550662695</v>
       </c>
       <c r="X36" t="n">
-        <v>415.5133402274631</v>
+        <v>295.3367550662695</v>
       </c>
       <c r="Y36" t="n">
-        <v>415.5133402274631</v>
+        <v>295.3367550662695</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960231</v>
       </c>
     </row>
     <row r="38">
@@ -7172,37 +7172,37 @@
         <v>20.83686474960229</v>
       </c>
       <c r="J38" t="n">
-        <v>178.5009941413882</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K38" t="n">
-        <v>178.5009941413882</v>
+        <v>189.4170857981603</v>
       </c>
       <c r="L38" t="n">
-        <v>225.2218366221483</v>
+        <v>447.2732870744886</v>
       </c>
       <c r="M38" t="n">
-        <v>306.0837357090954</v>
+        <v>528.1351861614357</v>
       </c>
       <c r="N38" t="n">
-        <v>381.4116288447877</v>
+        <v>603.4630792971279</v>
       </c>
       <c r="O38" t="n">
-        <v>415.6322635374554</v>
+        <v>861.3192805734564</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0297874835835</v>
+        <v>861.3192805734564</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5537443902417</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9595910354045</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962468</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>771.1019414684209</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="C39" t="n">
-        <v>771.1019414684209</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="D39" t="n">
-        <v>610.3218252294527</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="E39" t="n">
-        <v>436.7586213508671</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="F39" t="n">
-        <v>276.3309050681112</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="G39" t="n">
-        <v>256.290334375624</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="H39" t="n">
         <v>129.2847539859532</v>
@@ -7254,49 +7254,49 @@
         <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548263</v>
+        <v>58.8001907654826</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1331098938567</v>
+        <v>176.1331098938566</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978621</v>
+        <v>357.8097564978619</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086212</v>
+        <v>562.714732908621</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276555</v>
+        <v>694.4156725276554</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857554</v>
+        <v>778.0407857857552</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.1019414684209</v>
+        <v>771.1019414684208</v>
       </c>
       <c r="R39" t="n">
-        <v>771.1019414684209</v>
+        <v>771.1019414684208</v>
       </c>
       <c r="S39" t="n">
-        <v>771.1019414684209</v>
+        <v>577.5758896300326</v>
       </c>
       <c r="T39" t="n">
-        <v>771.1019414684209</v>
+        <v>577.5758896300326</v>
       </c>
       <c r="U39" t="n">
-        <v>771.1019414684209</v>
+        <v>577.5758896300326</v>
       </c>
       <c r="V39" t="n">
-        <v>771.1019414684209</v>
+        <v>574.4334414339291</v>
       </c>
       <c r="W39" t="n">
-        <v>771.1019414684209</v>
+        <v>574.4334414339291</v>
       </c>
       <c r="X39" t="n">
-        <v>771.1019414684209</v>
+        <v>354.9254470506255</v>
       </c>
       <c r="Y39" t="n">
-        <v>771.1019414684209</v>
+        <v>129.2847539859532</v>
       </c>
     </row>
     <row r="40">
@@ -7324,13 +7324,13 @@
         <v>20.83686474960229</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="K40" t="n">
         <v>56.03780166411086</v>
@@ -7409,34 +7409,34 @@
         <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323785</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K41" t="n">
-        <v>269.8575494107637</v>
+        <v>260.0057267824886</v>
       </c>
       <c r="L41" t="n">
-        <v>316.5783918915238</v>
+        <v>306.7265692632486</v>
       </c>
       <c r="M41" t="n">
-        <v>636.0399625017923</v>
+        <v>626.188139873517</v>
       </c>
       <c r="N41" t="n">
-        <v>711.3678556374846</v>
+        <v>903.3101786852701</v>
       </c>
       <c r="O41" t="n">
-        <v>984.1881618534735</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="P41" t="n">
-        <v>1207.846780749217</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q41" t="n">
-        <v>1357.63183260549</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1403.298774200268</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S41" t="n">
-        <v>1403.298774200268</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T41" t="n">
         <v>1403.298774200268</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>178.3130507109012</v>
+        <v>358.3238537105747</v>
       </c>
       <c r="C42" t="n">
-        <v>178.3130507109012</v>
+        <v>358.3238537105747</v>
       </c>
       <c r="D42" t="n">
-        <v>178.3130507109012</v>
+        <v>358.3238537105747</v>
       </c>
       <c r="E42" t="n">
-        <v>178.3130507109012</v>
+        <v>358.3238537105747</v>
       </c>
       <c r="F42" t="n">
-        <v>178.3130507109012</v>
+        <v>358.3238537105747</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400537</v>
+        <v>208.0767784836789</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400537</v>
+        <v>81.07119809400803</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400537</v>
+        <v>81.07119809400803</v>
       </c>
       <c r="J42" t="n">
         <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.0293014998857</v>
+        <v>66.02930149988568</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3622206282598</v>
+        <v>183.3622206282597</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322651</v>
+        <v>365.038867232265</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9438436430243</v>
+        <v>569.9438436430241</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6447832620586</v>
+        <v>701.6447832620585</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201585</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.331052202824</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="R42" t="n">
-        <v>642.2504453451699</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="S42" t="n">
-        <v>448.7243935067817</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="T42" t="n">
-        <v>231.5820464305289</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="U42" t="n">
-        <v>204.2674086518462</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="V42" t="n">
-        <v>204.2674086518462</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="W42" t="n">
-        <v>178.3130507109012</v>
+        <v>583.9645467752471</v>
       </c>
       <c r="X42" t="n">
-        <v>178.3130507109012</v>
+        <v>583.9645467752471</v>
       </c>
       <c r="Y42" t="n">
-        <v>178.3130507109012</v>
+        <v>358.3238537105747</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400537</v>
+        <v>109.7243062181694</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400537</v>
+        <v>109.7243062181694</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400537</v>
+        <v>109.7243062181694</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400537</v>
+        <v>109.7243062181694</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400537</v>
+        <v>109.7243062181694</v>
       </c>
       <c r="G43" t="n">
-        <v>54.7383904246591</v>
+        <v>109.7243062181694</v>
       </c>
       <c r="H43" t="n">
-        <v>54.7383904246591</v>
+        <v>130.133623560695</v>
       </c>
       <c r="I43" t="n">
         <v>130.133623560695</v>
@@ -7609,10 +7609,10 @@
         <v>28.06597548400537</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400537</v>
+        <v>46.96538615316655</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400537</v>
+        <v>46.96538615316655</v>
       </c>
     </row>
     <row r="44">
@@ -7646,34 +7646,34 @@
         <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6518442323785</v>
+        <v>51.86844385910106</v>
       </c>
       <c r="K44" t="n">
-        <v>190.6518442323785</v>
+        <v>283.8081951575843</v>
       </c>
       <c r="L44" t="n">
-        <v>237.3726867131385</v>
+        <v>569.1287091616656</v>
       </c>
       <c r="M44" t="n">
-        <v>556.834257323407</v>
+        <v>649.9906082486127</v>
       </c>
       <c r="N44" t="n">
-        <v>870.7618219824205</v>
+        <v>963.9181729076262</v>
       </c>
       <c r="O44" t="n">
-        <v>1143.582128198409</v>
+        <v>998.1388076002938</v>
       </c>
       <c r="P44" t="n">
-        <v>1367.240747094153</v>
+        <v>1221.797426496037</v>
       </c>
       <c r="Q44" t="n">
-        <v>1367.240747094153</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="R44" t="n">
-        <v>1403.298774200268</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.298774200268</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T44" t="n">
         <v>1403.298774200268</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>349.9468036131148</v>
+        <v>136.5138647203563</v>
       </c>
       <c r="C45" t="n">
-        <v>349.9468036131148</v>
+        <v>136.5138647203563</v>
       </c>
       <c r="D45" t="n">
-        <v>349.9468036131148</v>
+        <v>136.5138647203563</v>
       </c>
       <c r="E45" t="n">
-        <v>349.9468036131148</v>
+        <v>136.5138647203563</v>
       </c>
       <c r="F45" t="n">
-        <v>189.5190873303589</v>
+        <v>136.5138647203563</v>
       </c>
       <c r="G45" t="n">
-        <v>189.5190873303589</v>
+        <v>136.5138647203563</v>
       </c>
       <c r="H45" t="n">
-        <v>189.5190873303589</v>
+        <v>136.5138647203563</v>
       </c>
       <c r="I45" t="n">
-        <v>81.07119809400801</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J45" t="n">
         <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
-        <v>66.0293014998857</v>
+        <v>66.02930149988568</v>
       </c>
       <c r="L45" t="n">
-        <v>183.3622206282598</v>
+        <v>183.3622206282597</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322651</v>
+        <v>365.038867232265</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430243</v>
+        <v>569.9438436430241</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6447832620586</v>
+        <v>701.6447832620585</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201585</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.331052202824</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="R45" t="n">
-        <v>778.331052202824</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="S45" t="n">
-        <v>778.331052202824</v>
+        <v>591.7438446817702</v>
       </c>
       <c r="T45" t="n">
-        <v>561.1887051265712</v>
+        <v>580.6283882113562</v>
       </c>
       <c r="U45" t="n">
-        <v>561.1887051265712</v>
+        <v>341.0040755882363</v>
       </c>
       <c r="V45" t="n">
-        <v>561.1887051265712</v>
+        <v>341.0040755882363</v>
       </c>
       <c r="W45" t="n">
-        <v>349.9468036131148</v>
+        <v>315.0497176472913</v>
       </c>
       <c r="X45" t="n">
-        <v>349.9468036131148</v>
+        <v>315.0497176472913</v>
       </c>
       <c r="Y45" t="n">
-        <v>349.9468036131148</v>
+        <v>315.0497176472913</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400537</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="C46" t="n">
-        <v>101.873037845074</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="D46" t="n">
-        <v>101.873037845074</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="E46" t="n">
-        <v>101.873037845074</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="F46" t="n">
-        <v>101.873037845074</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="G46" t="n">
-        <v>101.873037845074</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="H46" t="n">
-        <v>101.873037845074</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="I46" t="n">
-        <v>101.873037845074</v>
+        <v>130.133623560695</v>
       </c>
       <c r="J46" t="n">
         <v>130.133623560695</v>
@@ -7849,7 +7849,7 @@
         <v>28.06597548400537</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400537</v>
+        <v>51.69578692129991</v>
       </c>
     </row>
   </sheetData>
@@ -8532,19 +8532,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
-        <v>172.1063303597423</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.4735084131581</v>
       </c>
       <c r="N9" t="n">
-        <v>163.4361383816801</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>177.1666678622357</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
         <v>166.6480266854964</v>
@@ -8769,7 +8769,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841508</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466382</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9246,7 +9246,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>240.3045437566416</v>
+        <v>240.3045437566415</v>
       </c>
       <c r="M18" t="n">
         <v>301.77688131</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.441042905518401</v>
+        <v>195.9389762247655</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>32.26411703693676</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085683</v>
+        <v>4.832714589321284</v>
       </c>
       <c r="F11" t="n">
         <v>225.0509854869456</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033362</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554828</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240821</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929901</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.36873040538033</v>
       </c>
       <c r="T11" t="n">
-        <v>33.4880177526651</v>
+        <v>44.31761724675141</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X11" t="n">
         <v>181.6344501416383</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653821</v>
+        <v>15.63936994613502</v>
       </c>
     </row>
     <row r="12">
@@ -23498,16 +23498,16 @@
         <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085683</v>
+        <v>4.832714589321228</v>
       </c>
       <c r="F14" t="n">
         <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
-        <v>144.1334988170509</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929904</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538036</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675144</v>
+        <v>44.3176172467514</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958189</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726991</v>
+        <v>74.18390000834171</v>
       </c>
       <c r="X14" t="n">
         <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.63936994613496</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1200799.426790106</v>
+        <v>1200799.426790107</v>
       </c>
     </row>
     <row r="6">
@@ -26314,7 +26314,7 @@
         <v>176386.3990352919</v>
       </c>
       <c r="C2" t="n">
-        <v>176386.3990352919</v>
+        <v>176386.399035292</v>
       </c>
       <c r="D2" t="n">
         <v>176488.2631438299</v>
@@ -26326,19 +26326,19 @@
         <v>151947.0857498267</v>
       </c>
       <c r="G2" t="n">
-        <v>176743.7097717074</v>
+        <v>176743.7097717073</v>
       </c>
       <c r="H2" t="n">
         <v>176743.7097717073</v>
       </c>
       <c r="I2" t="n">
-        <v>176743.7097717074</v>
+        <v>176743.7097717073</v>
       </c>
       <c r="J2" t="n">
         <v>176743.7097717074</v>
       </c>
       <c r="K2" t="n">
-        <v>176743.7097717074</v>
+        <v>176743.7097717075</v>
       </c>
       <c r="L2" t="n">
         <v>176743.7097717075</v>
@@ -26347,7 +26347,7 @@
         <v>176743.7097717072</v>
       </c>
       <c r="N2" t="n">
-        <v>176743.7097717072</v>
+        <v>176743.7097717073</v>
       </c>
       <c r="O2" t="n">
         <v>176743.7097717074</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913331</v>
+        <v>95439.52541913325</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068792</v>
+        <v>143496.2830068793</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>96101.69331262469</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.3662923228</v>
+        <v>46197.36629232277</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924376</v>
+        <v>72254.91485924381</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>290416.1225000672</v>
       </c>
       <c r="G4" t="n">
-        <v>361023.9905432891</v>
+        <v>361023.990543289</v>
       </c>
       <c r="H4" t="n">
         <v>361023.990543289</v>
@@ -26439,13 +26439,13 @@
         <v>361023.990543289</v>
       </c>
       <c r="J4" t="n">
-        <v>361792.602703913</v>
+        <v>361792.6027039131</v>
       </c>
       <c r="K4" t="n">
         <v>361792.6027039131</v>
       </c>
       <c r="L4" t="n">
-        <v>361777.8127365344</v>
+        <v>361777.8127365346</v>
       </c>
       <c r="M4" t="n">
         <v>360967.8753632159</v>
@@ -26482,7 +26482,7 @@
         <v>28642.95693774778</v>
       </c>
       <c r="G5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582417</v>
       </c>
       <c r="H5" t="n">
         <v>38672.33876582418</v>
@@ -26491,7 +26491,7 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.67722016349</v>
+        <v>47449.6772201635</v>
       </c>
       <c r="K5" t="n">
         <v>47449.6772201635</v>
@@ -26503,7 +26503,7 @@
         <v>40913.2955986873</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868729</v>
       </c>
       <c r="O5" t="n">
         <v>43797.12782887323</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-261032.8209043033</v>
+        <v>-261037.2872885085</v>
       </c>
       <c r="C6" t="n">
-        <v>-261032.8209043034</v>
+        <v>-261037.2872885085</v>
       </c>
       <c r="D6" t="n">
-        <v>-261930.9197739266</v>
+        <v>-261934.1128567751</v>
       </c>
       <c r="E6" t="n">
-        <v>-446238.1088667022</v>
+        <v>-446548.0666669757</v>
       </c>
       <c r="F6" t="n">
-        <v>-167111.9936879883</v>
+        <v>-167421.9514882618</v>
       </c>
       <c r="G6" t="n">
-        <v>-318392.1449565392</v>
+        <v>-318392.1449565391</v>
       </c>
       <c r="H6" t="n">
         <v>-222952.6195374059</v>
       </c>
       <c r="I6" t="n">
-        <v>-222952.6195374058</v>
+        <v>-222952.6195374059</v>
       </c>
       <c r="J6" t="n">
-        <v>-375994.8531592484</v>
+        <v>-375994.8531592485</v>
       </c>
       <c r="K6" t="n">
-        <v>-232498.5701523692</v>
+        <v>-232498.570152369</v>
       </c>
       <c r="L6" t="n">
-        <v>-328460.5438602996</v>
+        <v>-328460.5438602999</v>
       </c>
       <c r="M6" t="n">
-        <v>-271334.8274825188</v>
+        <v>-271334.8274825187</v>
       </c>
       <c r="N6" t="n">
         <v>-225137.461190196</v>
       </c>
       <c r="O6" t="n">
-        <v>-300663.2709433432</v>
+        <v>-300663.2709433433</v>
       </c>
       <c r="P6" t="n">
         <v>-228408.3560840994</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H2" t="n">
         <v>297.4476709269845</v>
@@ -26713,7 +26713,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M2" t="n">
         <v>272.0591682562687</v>
@@ -26747,37 +26747,37 @@
         <v>101.1713840758393</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.497933319247</v>
       </c>
       <c r="F4" t="n">
         <v>188.4979333192471</v>
@@ -26811,7 +26811,7 @@
         <v>188.4979333192471</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892755</v>
+        <v>448.9587426892758</v>
       </c>
       <c r="K4" t="n">
         <v>448.9587426892758</v>
@@ -26820,7 +26820,7 @@
         <v>445.7594930492623</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="N4" t="n">
         <v>260.4608093700286</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,13 +26923,13 @@
         <v>119.2994067739166</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008437</v>
+        <v>94.1853437500844</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540349</v>
+        <v>57.74670786540347</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929166</v>
+        <v>63.13594470929172</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792336</v>
+        <v>185.2986836792335</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700284</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>119.2994067739166</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008437</v>
+        <v>94.1853437500844</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792336</v>
+        <v>185.2986836792335</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D8" t="n">
-        <v>337.9020750954183</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
         <v>371.4789120616362</v>
@@ -27871,7 +27871,7 @@
         <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
-        <v>256.6898085504863</v>
+        <v>256.8197240036773</v>
       </c>
       <c r="J8" t="n">
         <v>111.3013968910535</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>173.9325953147419</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>184.3189018843524</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
         <v>155.9730654365651</v>
@@ -27947,7 +27947,7 @@
         <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>124.6379672828833</v>
       </c>
       <c r="I9" t="n">
         <v>111.6565698077035</v>
@@ -27974,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>31.82978284919219</v>
       </c>
       <c r="R9" t="n">
         <v>148.2309527983001</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K11" t="n">
-        <v>178.1482641530678</v>
+        <v>6.727192146301029</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8192473728357</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.4091523741033</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.9316356498857</v>
       </c>
       <c r="P11" t="n">
-        <v>19.41168532311845</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530678</v>
+        <v>122.0341768717003</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>87.19308697175258</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.092858000757218</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T12" t="n">
-        <v>35.19804472622465</v>
+        <v>26.47299028624327</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="13">
@@ -28251,13 +28251,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G13" t="n">
         <v>168.7007749271525</v>
@@ -28272,49 +28272,49 @@
         <v>120.239607582909</v>
       </c>
       <c r="K13" t="n">
-        <v>152.5177391830989</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1482641530678</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M13" t="n">
-        <v>25.21686539889348</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52015736928138</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="O13" t="n">
         <v>37.47888399777683</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530678</v>
+        <v>146.0042437532828</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530678</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K14" t="n">
-        <v>178.1482641530678</v>
+        <v>160.7168484597797</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q14" t="n">
-        <v>160.7168484597797</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530678</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28427,7 +28427,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.86945587416108</v>
       </c>
       <c r="R15" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>111.759526336042</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T15" t="n">
-        <v>26.47299028624318</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530678</v>
+        <v>155.6967708665838</v>
       </c>
       <c r="W15" t="n">
-        <v>78.20665025776449</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I16" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J16" t="n">
-        <v>120.239607582909</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K16" t="n">
-        <v>120.507477805629</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1482641530678</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52015736928137</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="O16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="P16" t="n">
-        <v>178.1482641530678</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.1482641530678</v>
+        <v>154.7725282691901</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78161896459409</v>
+        <v>265.2795522838412</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146301022</v>
+        <v>49.41207778818364</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>29.52666629959148</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2096703566691</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269845</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4476709269845</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269845</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U17" t="n">
         <v>250.1505414926498</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="18">
@@ -28646,25 +28646,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R18" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757246</v>
       </c>
       <c r="T18" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764155</v>
       </c>
       <c r="V18" t="n">
-        <v>184.0296181702126</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>40.68494498698539</v>
       </c>
     </row>
     <row r="19">
@@ -28749,16 +28749,16 @@
         <v>67.02998013919</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817891</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M19" t="n">
         <v>25.21686539889348</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P19" t="n">
         <v>58.4785989002489</v>
@@ -28825,10 +28825,10 @@
         <v>76.78161896459409</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146301022</v>
+        <v>6.727192146301029</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28837,13 +28837,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P20" t="n">
-        <v>203.5899056703359</v>
+        <v>122.9692628382758</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.6432328990785</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R20" t="n">
         <v>194.8815453823669</v>
@@ -28852,10 +28852,10 @@
         <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
+        <v>222.4658813998193</v>
+      </c>
+      <c r="U20" t="n">
         <v>297.4476709269845</v>
-      </c>
-      <c r="U20" t="n">
-        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269845</v>
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28901,7 +28901,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,25 +28922,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>110.8438987619657</v>
       </c>
       <c r="S21" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624321</v>
       </c>
       <c r="U21" t="n">
-        <v>190.8960051012693</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>78.20665025776449</v>
+        <v>78.20665025776452</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28986,16 +28986,16 @@
         <v>67.02998013919</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817891</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M22" t="n">
         <v>25.21686539889348</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O22" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P22" t="n">
         <v>58.4785989002489</v>
@@ -29059,16 +29059,16 @@
         <v>297.4476709269845</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78161896459409</v>
+        <v>86.96319108487852</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146301022</v>
+        <v>6.727192146301029</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29077,13 +29077,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>170.7274701845039</v>
+        <v>203.5899056703359</v>
       </c>
       <c r="Q23" t="n">
         <v>89.71173703742201</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269845</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S23" t="n">
         <v>297.4476709269845</v>
@@ -29092,7 +29092,7 @@
         <v>297.4476709269845</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269845</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269845</v>
@@ -29117,13 +29117,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29138,7 +29138,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>191.5907913200043</v>
@@ -29174,16 +29174,16 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>185.9037978734983</v>
       </c>
       <c r="W24" t="n">
-        <v>78.20665025776449</v>
+        <v>78.20665025776452</v>
       </c>
       <c r="X24" t="n">
-        <v>41.48302916659148</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.88635281477852</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29223,16 +29223,16 @@
         <v>67.02998013919</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817891</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M25" t="n">
         <v>25.21686539889348</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O25" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P25" t="n">
         <v>58.4785989002489</v>
@@ -29317,7 +29317,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4847505240002</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R26" t="n">
         <v>213.484750524001</v>
@@ -29351,31 +29351,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>71.4984259544121</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>57.13413962134517</v>
       </c>
       <c r="S27" t="n">
         <v>191.5907913200043</v>
@@ -29408,7 +29408,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="U27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>213.484750524001</v>
@@ -29420,7 +29420,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29433,13 +29433,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>201.2028592106865</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D28" t="n">
-        <v>213.484750524001</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>213.484750524001</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
@@ -29448,28 +29448,28 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H28" t="n">
-        <v>213.484750524001</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I28" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
-        <v>120.239607582909</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K28" t="n">
         <v>67.02998013919</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817891</v>
+        <v>114.3958444481731</v>
       </c>
       <c r="M28" t="n">
         <v>25.21686539889348</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O28" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P28" t="n">
         <v>58.4785989002489</v>
@@ -29597,13 +29597,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
         <v>125.7355245857741</v>
@@ -29612,7 +29612,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890777</v>
@@ -29645,16 +29645,16 @@
         <v>213.484750524001</v>
       </c>
       <c r="U30" t="n">
-        <v>165.7776251192821</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>213.484750524001</v>
       </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>181.9911366102942</v>
       </c>
       <c r="Y30" t="n">
         <v>213.484750524001</v>
@@ -29670,7 +29670,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29679,37 +29679,37 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G31" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H31" t="n">
-        <v>165.8243976546666</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I31" t="n">
-        <v>213.484750524001</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
-        <v>213.484750524001</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K31" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L31" t="n">
-        <v>122.8464209125326</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928137</v>
+        <v>79.84589670384564</v>
       </c>
       <c r="O31" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P31" t="n">
-        <v>58.4785989002489</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2169859636892</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407511</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.195335640751</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="33">
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>36.57974351389248</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29837,10 +29837,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>125.7355245857741</v>
@@ -29849,7 +29849,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890777</v>
@@ -29879,22 +29879,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U33" t="n">
-        <v>14.54989104406286</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="34">
@@ -29904,22 +29904,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>214.3124603908652</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3124603908652</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="E34" t="n">
-        <v>214.3124603908652</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.7007749271525</v>
+        <v>178.9484044875807</v>
       </c>
       <c r="H34" t="n">
         <v>165.8243976546666</v>
@@ -29931,49 +29931,49 @@
         <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
-        <v>67.02998013919</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817891</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O34" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P34" t="n">
-        <v>58.4785989002489</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R34" t="n">
-        <v>203.7729326443081</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="35">
@@ -30007,13 +30007,13 @@
         <v>241.0097692154761</v>
       </c>
       <c r="J35" t="n">
-        <v>257.9469420835524</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="K35" t="n">
-        <v>6.727192146301022</v>
+        <v>267.1880015163298</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>213.2680391874429</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,13 +30022,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.066839250288815</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0591682562687</v>
+        <v>15.09197235108886</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0591682562687</v>
+        <v>89.71173703742204</v>
       </c>
       <c r="R35" t="n">
         <v>272.0591682562687</v>
@@ -30037,7 +30037,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U35" t="n">
         <v>250.1505414926498</v>
@@ -30062,13 +30062,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -30080,13 +30080,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
-        <v>71.59488898824765</v>
+        <v>13.15294824885223</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
         <v>191.5907913200043</v>
@@ -30119,16 +30119,16 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30147,7 +30147,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>180.7391521845578</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30156,7 +30156,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>204.2572768609995</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H37" t="n">
         <v>165.8243976546666</v>
@@ -30168,22 +30168,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817891</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O37" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P37" t="n">
-        <v>58.4785989002489</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
@@ -30244,13 +30244,13 @@
         <v>241.0097692154761</v>
       </c>
       <c r="J38" t="n">
-        <v>236.0383153199334</v>
+        <v>76.78161896459412</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146301022</v>
+        <v>177.010243710501</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.2680391874428</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30259,25 +30259,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>225.8945117006674</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0591682562687</v>
+        <v>15.09197235108886</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30305,25 +30305,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>128.9044394890645</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30350,7 +30350,7 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9709236054903</v>
@@ -30359,16 +30359,16 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>237.5378972012598</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30396,7 +30396,7 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H40" t="n">
-        <v>165.8243976546666</v>
+        <v>201.3808995885136</v>
       </c>
       <c r="I40" t="n">
         <v>164.852968067965</v>
@@ -30405,22 +30405,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K40" t="n">
-        <v>102.586482073037</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817891</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O40" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P40" t="n">
-        <v>58.4785989002489</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
@@ -30478,13 +30478,13 @@
         <v>241.009769215476</v>
       </c>
       <c r="I41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
+        <v>76.78161896459412</v>
+      </c>
+      <c r="K41" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="K41" t="n">
-        <v>86.73295495275076</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,13 +30493,13 @@
         <v>241.009769215476</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>203.8324703798594</v>
       </c>
       <c r="O41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>241.009769215476</v>
+        <v>15.09197235108886</v>
       </c>
       <c r="Q41" t="n">
         <v>241.009769215476</v>
@@ -30508,10 +30508,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="S41" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4658813998193</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U41" t="n">
         <v>241.009769215476</v>
@@ -30554,13 +30554,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,31 +30581,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>210.1865780959927</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>67.41228732954946</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>241.009769215476</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30630,34 +30630,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>195.6426082005401</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H43" t="n">
-        <v>165.8243976546666</v>
+        <v>186.4398697178237</v>
       </c>
       <c r="I43" t="n">
-        <v>241.009769215476</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
         <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15181624817891</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O43" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P43" t="n">
-        <v>58.4785989002489</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2169859636892</v>
@@ -30681,7 +30681,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -30718,37 +30718,37 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
+        <v>100.8245163131756</v>
+      </c>
+      <c r="K44" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="K44" t="n">
-        <v>6.727192146301022</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="O44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.71173703742201</v>
+        <v>241.009769215476</v>
       </c>
       <c r="R44" t="n">
-        <v>231.3037949845038</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S44" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4658813998193</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U44" t="n">
         <v>241.009769215476</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30785,7 +30785,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446044746268</v>
@@ -30797,7 +30797,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,25 +30818,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>203.9666216997805</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>57.57510107868976</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>241.009769215476</v>
       </c>
       <c r="C46" t="n">
-        <v>241.009769215476</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
@@ -30873,28 +30873,28 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I46" t="n">
-        <v>164.852968067965</v>
+        <v>180.6902575370481</v>
       </c>
       <c r="J46" t="n">
-        <v>148.7856537603039</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817891</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P46" t="n">
-        <v>58.4785989002489</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2169859636892</v>
@@ -30921,7 +30921,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.1412728141684</v>
+        <v>241.009769215476</v>
       </c>
     </row>
   </sheetData>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.406719131963173</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217846</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I14" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645938</v>
+        <v>34.51977792645937</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727847</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032855</v>
+        <v>71.41632078032852</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401892</v>
+        <v>72.57191151401889</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610813</v>
+        <v>9.26811221961081</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705383</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729614</v>
+        <v>7.492409103729611</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884581</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000168</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133244</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134016</v>
+        <v>51.77588747134014</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862164</v>
+        <v>41.55471433862163</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795499</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935653</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971353</v>
+        <v>0.8771368109971349</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H16" t="n">
         <v>1.622059239773294</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014371</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786389</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309188</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q16" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629245</v>
+        <v>3.179435135629244</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679423</v>
+        <v>0.779517221567942</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590762</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.406719131963173</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H17" t="n">
         <v>4.165312310217846</v>
@@ -32236,34 +32236,34 @@
         <v>34.51977792645938</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246051</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L17" t="n">
         <v>64.18332941727847</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032855</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401892</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610813</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U17" t="n">
         <v>0.03253753055705383</v>
@@ -32303,28 +32303,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729614</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J18" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000168</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M18" t="n">
         <v>55.13840432133244</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O18" t="n">
         <v>51.77588747134016</v>
@@ -32333,16 +32333,16 @@
         <v>41.55471433862164</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795499</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971353</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375086</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H19" t="n">
         <v>1.622059239773294</v>
@@ -32394,7 +32394,7 @@
         <v>12.89852219602955</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752831</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L19" t="n">
         <v>27.12388221600454</v>
@@ -32415,16 +32415,16 @@
         <v>15.27687899545174</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S19" t="n">
         <v>3.179435135629245</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679423</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.406719131963173</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H20" t="n">
         <v>4.165312310217846</v>
@@ -32473,34 +32473,34 @@
         <v>34.51977792645938</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246051</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L20" t="n">
         <v>64.18332941727847</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032855</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401892</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610813</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U20" t="n">
         <v>0.03253753055705383</v>
@@ -32540,28 +32540,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729614</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J21" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000168</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M21" t="n">
         <v>55.13840432133244</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O21" t="n">
         <v>51.77588747134016</v>
@@ -32570,16 +32570,16 @@
         <v>41.55471433862164</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795499</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971353</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375086</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H22" t="n">
         <v>1.622059239773294</v>
@@ -32631,7 +32631,7 @@
         <v>12.89852219602955</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752831</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L22" t="n">
         <v>27.12388221600454</v>
@@ -32652,16 +32652,16 @@
         <v>15.27687899545174</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S22" t="n">
         <v>3.179435135629245</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679423</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.406719131963173</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H23" t="n">
         <v>4.165312310217846</v>
@@ -32710,34 +32710,34 @@
         <v>34.51977792645938</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246051</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L23" t="n">
         <v>64.18332941727847</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032855</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401892</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610813</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U23" t="n">
         <v>0.03253753055705383</v>
@@ -32777,28 +32777,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729614</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J24" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000168</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M24" t="n">
         <v>55.13840432133244</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O24" t="n">
         <v>51.77588747134016</v>
@@ -32807,16 +32807,16 @@
         <v>41.55471433862164</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795499</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971353</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375086</v>
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H25" t="n">
         <v>1.622059239773294</v>
@@ -32868,7 +32868,7 @@
         <v>12.89852219602955</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752831</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L25" t="n">
         <v>27.12388221600454</v>
@@ -32889,16 +32889,16 @@
         <v>15.27687899545174</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S25" t="n">
         <v>3.179435135629245</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679423</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.406719131963173</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H26" t="n">
         <v>4.165312310217846</v>
@@ -32947,34 +32947,34 @@
         <v>34.51977792645938</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246051</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L26" t="n">
         <v>64.18332941727847</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032855</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401892</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610813</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U26" t="n">
         <v>0.03253753055705383</v>
@@ -33014,28 +33014,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729614</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J27" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000168</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M27" t="n">
         <v>55.13840432133244</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O27" t="n">
         <v>51.77588747134016</v>
@@ -33044,16 +33044,16 @@
         <v>41.55471433862164</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795499</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971353</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375086</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H28" t="n">
         <v>1.622059239773294</v>
@@ -33105,7 +33105,7 @@
         <v>12.89852219602955</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752831</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L28" t="n">
         <v>27.12388221600454</v>
@@ -33126,16 +33126,16 @@
         <v>15.27687899545174</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S28" t="n">
         <v>3.179435135629245</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679423</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.406719131963173</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217846</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645938</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727847</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032855</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401892</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178813</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610813</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705383</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729614</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884581</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000168</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133244</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134016</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862164</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795499</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971353</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014371</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786389</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309188</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837952</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629245</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679423</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.406719131963173</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217846</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I32" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645938</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727847</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032855</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401892</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178813</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610813</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705383</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729614</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884581</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000168</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133244</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134016</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862164</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795499</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R33" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971353</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H34" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014371</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786389</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309188</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837952</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629245</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679423</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.406719131963173</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217846</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I35" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645938</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727847</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032855</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401892</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178813</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610813</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705383</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729614</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884581</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000168</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133244</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134016</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862164</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795499</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R36" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971353</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H37" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014371</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786389</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309188</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837952</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629245</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679423</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.406719131963173</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217846</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I38" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645938</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727847</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032855</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401892</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178813</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610813</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705383</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729614</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884581</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000168</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133244</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134016</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862164</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795499</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R39" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971353</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H40" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014371</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786389</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309188</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837952</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629245</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679423</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.406719131963173</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217846</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I41" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645938</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727847</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032855</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401892</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178813</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610813</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705383</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729614</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884581</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000168</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133244</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134016</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862164</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795499</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R42" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971353</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014371</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786389</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309188</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837952</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629245</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679423</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.406719131963173</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217846</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645938</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727847</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032855</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401892</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178813</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610813</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705383</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729614</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884581</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000168</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133244</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134016</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862164</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77822605795499</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971353</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014371</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786389</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309188</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837952</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629245</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679423</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35152,7 +35152,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.1299154531910408</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="M9" t="n">
         <v>3.069987028295762</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>3.199249640013477</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884737</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4210720067668</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>188.4979333192471</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641129</v>
+        <v>188.497933319247</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514371</v>
+        <v>188.497933319247</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936128</v>
+        <v>188.497933319247</v>
       </c>
       <c r="P11" t="n">
-        <v>4.319712972029619</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564582</v>
+        <v>32.32243983427831</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543468</v>
+        <v>38.34679395543447</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35498,7 +35498,7 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192471</v>
+        <v>188.497933319247</v>
       </c>
       <c r="O12" t="n">
         <v>133.0312521404387</v>
@@ -35547,13 +35547,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235712</v>
+        <v>32.96561390235715</v>
       </c>
       <c r="E13" t="n">
-        <v>36.47212294084284</v>
+        <v>36.47212294084287</v>
       </c>
       <c r="F13" t="n">
-        <v>39.22138193462118</v>
+        <v>39.22138193462121</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>85.48775904390888</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>145.9964479048889</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6696652528189</v>
+        <v>87.52564485303392</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884737</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4210720067668</v>
+        <v>153.9896563134787</v>
       </c>
       <c r="L14" t="n">
-        <v>47.1927701825859</v>
+        <v>47.19277018258587</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641131</v>
+        <v>81.67868594641128</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514372</v>
+        <v>76.0887809451437</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936129</v>
+        <v>34.56629766936126</v>
       </c>
       <c r="P14" t="n">
         <v>163.056291801979</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.00511142235769</v>
+        <v>88.43652711564582</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543468</v>
+        <v>38.34679395543467</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M15" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N15" t="n">
         <v>188.4979333192471</v>
@@ -35778,52 +35778,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.5313434880997647</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.69108318109551</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.47212294084287</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.22138193462121</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.447489225915389</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840127</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.29529608510281</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>57.90865657015888</v>
       </c>
       <c r="K16" t="n">
-        <v>53.477497666439</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.9964479048889</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O16" t="n">
         <v>140.669380155291</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6696652528189</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937859</v>
+        <v>27.55554230550089</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,40 +35878,40 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150841</v>
+        <v>56.43790171150835</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>42.68488564188262</v>
       </c>
       <c r="L17" t="n">
         <v>47.1927701825859</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641131</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514372</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936129</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P17" t="n">
-        <v>14.43469394850266</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93067636853628</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716522</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L18" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M18" t="n">
         <v>183.5117642464701</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43790171150841</v>
+        <v>56.4379017115084</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.1927701825859</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641131</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514372</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936129</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="P20" t="n">
-        <v>188.4979333192471</v>
+        <v>107.8772904871869</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.9314958616565</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36148,10 +36148,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716522</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.29712943433472</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150841</v>
+        <v>56.4379017115084</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>10.18157212028443</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36364,22 +36364,22 @@
         <v>47.1927701825859</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641131</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514372</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936129</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P23" t="n">
-        <v>155.635497833415</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>69.93067636853628</v>
@@ -36388,7 +36388,7 @@
         <v>74.98178952716522</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433472</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>295.1634364704123</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691447</v>
       </c>
       <c r="O26" t="n">
         <v>248.0510481933623</v>
@@ -36613,10 +36613,10 @@
         <v>198.3927781729122</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7730134865782</v>
+        <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163415</v>
+        <v>18.60320514163417</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36729,13 +36729,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>34.7456782387141</v>
+        <v>47.02756955202867</v>
       </c>
       <c r="D28" t="n">
-        <v>68.30210027329031</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.80860931177602</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36744,19 +36744,19 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.66035286933443</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.24514294109204</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>82.24402819999415</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36841,10 +36841,10 @@
         <v>295.1634364704123</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691447</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933622</v>
       </c>
       <c r="P29" t="n">
         <v>198.3927781729122</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163415</v>
+        <v>18.60320514163413</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543468</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L30" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M30" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O30" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181803</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47.02756955202867</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36975,31 +36975,31 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>74.55786830555436</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.66035286933443</v>
       </c>
       <c r="I31" t="n">
-        <v>48.63178245603597</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.24514294109204</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.69460466435372</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>63.32573933456425</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262711</v>
+        <v>137.5308414262712</v>
       </c>
       <c r="K32" t="n">
         <v>207.5852682445642</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734511</v>
+        <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372765</v>
+        <v>275.8740215871624</v>
       </c>
       <c r="N32" t="n">
         <v>290.401241336009</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602265</v>
+        <v>248.8787580602266</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397764</v>
+        <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>104.4835986033289</v>
+        <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849836</v>
+        <v>19.43091500849843</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543468</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L33" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M33" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O33" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181803</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,22 +37200,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.69553972589713</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.85527941889288</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>69.12981014015452</v>
+        <v>69.1298101401546</v>
       </c>
       <c r="E34" t="n">
-        <v>72.63631917864024</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>10.2476295604282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>147.2824802516753</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3429714886739719</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1653231189583</v>
+        <v>195.2775492916746</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="L35" t="n">
-        <v>47.1927701825859</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641131</v>
+        <v>81.67868594641126</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514372</v>
+        <v>76.08878094514368</v>
       </c>
       <c r="O35" t="n">
-        <v>34.56629766936129</v>
+        <v>35.63313691965006</v>
       </c>
       <c r="P35" t="n">
-        <v>256.9671959051799</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3474312188467</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390185</v>
+        <v>77.17762287390184</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782053</v>
+        <v>44.54217369782052</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543468</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L36" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M36" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O36" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181803</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37540,40 +37540,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2566963553393</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>170.2830515642</v>
       </c>
       <c r="L38" t="n">
-        <v>47.1927701825859</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641131</v>
+        <v>81.67868594641126</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514372</v>
+        <v>76.08878094514368</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936129</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="P38" t="n">
-        <v>256.9671959051799</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>182.3474312188467</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390185</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782053</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543468</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L39" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M39" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O39" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181803</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.2281502508819</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>80.00576280644974</v>
+        <v>234.282577069175</v>
       </c>
       <c r="L41" t="n">
-        <v>47.1927701825859</v>
+        <v>47.19277018258587</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6884551618874</v>
+        <v>322.6884551618873</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514372</v>
+        <v>279.9212513250031</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5760668848374</v>
+        <v>275.5760668848373</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643872</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>151.298032178054</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310917</v>
+        <v>46.12822383310916</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.49277465702785</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.54388781565678</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543468</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L42" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M42" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O42" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181803</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>63.39284855050795</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37926,13 +37926,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>26.94183327338761</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>20.61547206315714</v>
       </c>
       <c r="I43" t="n">
-        <v>76.15680114751099</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>19.09031380723351</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.2281502508819</v>
+        <v>24.04289734858151</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>234.282577069175</v>
       </c>
       <c r="L44" t="n">
-        <v>47.1927701825859</v>
+        <v>288.2025393980619</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6884551618874</v>
+        <v>81.67868594641126</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0985501606198</v>
+        <v>317.0985501606197</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848374</v>
+        <v>34.56629766936125</v>
       </c>
       <c r="P44" t="n">
         <v>225.9177968643872</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.298032178054</v>
       </c>
       <c r="R44" t="n">
-        <v>36.42224960213693</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.49277465702785</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.54388781565678</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543468</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L45" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N45" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O45" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181803</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,10 +38148,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>63.39284855050795</v>
       </c>
       <c r="C46" t="n">
-        <v>74.55258824350369</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38169,10 +38169,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>15.83728946908303</v>
       </c>
       <c r="J46" t="n">
-        <v>28.54604617739491</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38217,7 +38217,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>23.86849640130762</v>
       </c>
     </row>
   </sheetData>
